--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ042.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ042.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A25EB-88A0-46A9-B163-3AA9F238F900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB0FDC-CE70-4160-8E59-AA5780DE2F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -472,22 +472,13 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
     <t>CustId ASC , RcDate DESC</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>RcDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND RcDate=</t>
@@ -572,6 +563,26 @@
   </si>
   <si>
     <t>SubmitKey= , AND CustId= , AND RcDate= , AND MaxMainCode=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SubmitKey= , AND CustId= , AND RcDate= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcSubEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1204,10 +1215,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1252,7 +1263,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="18" t="s">
@@ -1265,7 +1276,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="18" t="s">
@@ -1317,7 +1328,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10"/>
     </row>
@@ -1332,14 +1343,14 @@
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1354,14 +1365,14 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" s="18">
         <v>10</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H12"/>
     </row>
@@ -1376,7 +1387,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -1396,14 +1407,14 @@
         <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" s="18">
         <v>3</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14"/>
     </row>
@@ -1858,7 +1869,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>63</v>
@@ -1877,10 +1888,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>27</v>
@@ -2330,11 +2341,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2358,65 +2369,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
